--- a/2022/6.DAEWOO LUBLIN.xlsx
+++ b/2022/6.DAEWOO LUBLIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/btn/PycharmProjects/cars/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD68517-9BA5-3D4C-9559-0310F8133517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217ED591-52E6-284F-A2C9-4D6A768A83AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="pazdziernik" sheetId="10" r:id="rId10"/>
     <sheet name="listopad" sheetId="11" r:id="rId11"/>
     <sheet name="grudzien" sheetId="12" r:id="rId12"/>
-    <sheet name="Arkusz1" sheetId="13" r:id="rId13"/>
+    <sheet name="ochrona_srodowiska" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -466,6 +466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -479,7 +480,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -798,38 +798,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -841,57 +841,57 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -1191,36 +1191,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -1234,12 +1234,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -1249,45 +1249,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1333,38 +1333,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1376,59 +1376,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>wrzesien!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>wrzesien!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -1725,36 +1725,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -1768,12 +1768,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -1783,45 +1783,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1871,38 +1871,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
@@ -1914,59 +1914,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>pazdziernik!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>pazdziernik!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -2263,36 +2263,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -2306,12 +2306,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -2321,45 +2321,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2409,38 +2409,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
@@ -2452,59 +2452,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>listopad!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>listopad!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -2801,36 +2801,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -2844,12 +2844,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -2859,45 +2859,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2940,7 +2940,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B1">
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B2">
@@ -2958,7 +2958,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B3">
@@ -2967,7 +2967,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B4">
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B5">
@@ -2985,7 +2985,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B6">
@@ -2994,7 +2994,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B7">
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B8">
@@ -3012,7 +3012,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B9">
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B10">
@@ -3030,7 +3030,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B11">
@@ -3039,7 +3039,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B12">
@@ -3048,7 +3048,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B13">
@@ -3079,38 +3079,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
@@ -3122,59 +3122,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>styczen!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>styczen!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -3471,36 +3471,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -3514,12 +3514,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -3529,45 +3529,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3617,38 +3617,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3660,59 +3660,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>luty!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>300000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>300000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>luty!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -4009,36 +4009,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>40500</v>
@@ -4052,12 +4052,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -4067,45 +4067,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>40500</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4155,38 +4155,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
@@ -4198,59 +4198,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>marzec!E8</f>
         <v>300000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>-300000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>marzec!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -4547,36 +4547,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>-40500</v>
@@ -4590,12 +4590,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>40500</v>
@@ -4605,45 +4605,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4693,38 +4693,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
@@ -4736,59 +4736,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>kwiecien!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>kwiecien!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -5085,36 +5085,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -5128,12 +5128,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -5143,45 +5143,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5231,38 +5231,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
@@ -5274,59 +5274,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>maj!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>maj!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -5623,36 +5623,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -5666,12 +5666,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -5681,45 +5681,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -5769,38 +5769,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
@@ -5812,59 +5812,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>czerwiec!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>czerwiec!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -6161,36 +6161,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -6204,12 +6204,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -6219,45 +6219,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6307,38 +6307,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
@@ -6350,59 +6350,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>lipiec!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>lipiec!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -6699,36 +6699,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -6742,12 +6742,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -6757,45 +6757,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6845,38 +6845,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
@@ -6888,59 +6888,59 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <f>sierpien!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5">
         <f>E8-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <f>sierpien!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <f>C29</f>
         <v>0</v>
@@ -7237,36 +7237,36 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5">
         <f>E11+E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14">
         <f>E9*0.135</f>
         <v>0</v>
@@ -7280,12 +7280,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="str">
         <f>IF(G33&lt;H33,G33*-1,G34)</f>
         <v>-----------</v>
@@ -7295,45 +7295,45 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="str">
         <f>IF(G33&gt;H33,G33,G34)</f>
         <v>-----------</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5">
         <f>E31-E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
